--- a/biology/Médecine/Centre_international_de_cancérologie_de_Dakar/Centre_international_de_cancérologie_de_Dakar.xlsx
+++ b/biology/Médecine/Centre_international_de_cancérologie_de_Dakar/Centre_international_de_cancérologie_de_Dakar.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Centre_international_de_canc%C3%A9rologie_de_Dakar</t>
+          <t>Centre_international_de_cancérologie_de_Dakar</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Créé en juin 2019 dans le cadre d’un partenariat franco-sénégalais, le Centre international de cancérologie de Dakar (CICD) fait partie des grands projets nationaux du Sénégal soutenu par le président Macky Sall. Il comporte un service de radiothérapie, un service de chimiothérapie et un centre d’imagerie diagnostic.
 Le CICD fait partie d’un groupe de centres d’oncologie-radiothérapie basés en France (à Clermont-Ferrand, Nevers, Aurillac, Chaumont et Vichy) qui participent au bon fonctionnement du CICD par le biais d'échanges de personnel médical, technique et physicien. Le partage des informations médicales par un réseau informatique spécifique au groupe permet de proposer une prise en charge des patients selon les mêmes standards qu’en Europe.
@@ -494,7 +506,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Centre_international_de_canc%C3%A9rologie_de_Dakar</t>
+          <t>Centre_international_de_cancérologie_de_Dakar</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -512,7 +524,9 @@
           <t>Activité</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Le centre est ouvert du lundi au vendredi et accueille tous les patients nécessitant un traitement ou un diagnostic en cancérologie. 
 Le CICD est constitué :
